--- a/data/Datos_Fase1.xlsx
+++ b/data/Datos_Fase1.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1QxyDLcOmaze0f2S9vwBTDDBIvubizoRL\A.Puente_SDG\CFD - Timoteo\Python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ubu\workspace\mecanica-economica\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EBEFD3-2815-4AD2-9959-D155735D54C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E6726-415E-4EB2-A33F-B77BE66AAEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19280" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos_it3" sheetId="2" r:id="rId1"/>
     <sheet name="datos_it4" sheetId="1" r:id="rId2"/>
     <sheet name="datos_it4 (fecha)" sheetId="4" r:id="rId3"/>
-    <sheet name="metric" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -447,7 +446,7 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -2634,7 +2633,7 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -8166,7 +8165,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -13690,18 +13689,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F895274-BF81-4797-A325-26A4DB51ACFF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/Datos_Fase1.xlsx
+++ b/data/Datos_Fase1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ubu\workspace\mecanica-economica\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ubu\workspace\MECO\mecanica-economica\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6E6726-415E-4EB2-A33F-B77BE66AAEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35523509-46E6-4B27-891A-80E438856925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19280" yWindow="-80" windowWidth="19360" windowHeight="11440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="1725" windowWidth="19185" windowHeight="10785" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="datos_it3" sheetId="2" r:id="rId1"/>
     <sheet name="datos_it4" sheetId="1" r:id="rId2"/>
     <sheet name="datos_it4 (fecha)" sheetId="4" r:id="rId3"/>
+    <sheet name="data_volati" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>tiempo</t>
   </si>
   <si>
     <t>Serie Inicial</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -8161,8 +8165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC70C74-1D25-47F6-803C-AA1A3EE5730C}">
   <dimension ref="A1:C790"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13689,4 +13693,5261 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1276DBDC-F240-44D2-8B8B-57F042F377BC}">
+  <dimension ref="A1:B790"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2002.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44928</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1991.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44929</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1999.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44930</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1977.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44931</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1981.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44932</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1983.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44933</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1960.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44934</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1961.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44935</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1945.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44936</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1932.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44937</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1964.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44938</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1951.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1966.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44940</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1981.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44941</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1991.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44942</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1985.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44943</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1978.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44944</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1985.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44945</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1996.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44946</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1988.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44947</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1987.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>44948</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1984.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44949</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44950</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1976.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44951</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1982.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44952</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1968.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44953</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1955.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44954</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1922.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44955</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1921.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1927.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1869.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1872.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44959</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1849.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44961</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1830.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44962</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1816.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44963</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1818.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44964</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1824.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44965</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>44966</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1848.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1860.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44968</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1871.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44969</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1900.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44970</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1916.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44971</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1925.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44972</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1919.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44973</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1945.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B49" s="2">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>44975</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1931.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>44976</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1923.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>44977</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>44978</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1909.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>44979</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1911.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>44980</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1923.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1918.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>44982</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1917.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>44983</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1918.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>44984</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1926.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>44985</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1939.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1938.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1944.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>44988</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1936.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>44989</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1917.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>44990</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1911.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>44991</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1918.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>44992</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1918.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>44993</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1896.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1893.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>44995</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1886.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>44996</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1884.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>44997</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1896.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>44998</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1902.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>44999</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1910.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>45000</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1912.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1914.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>45002</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1915.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>45003</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1924.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>45004</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1933.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>45005</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1939.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>45006</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>45007</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1937.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>45008</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1940.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>45009</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1970.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>45010</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1960.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>45011</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1945.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>45012</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1968.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>45013</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1962.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>45014</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1960.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1964.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>45016</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1968.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1977.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>45018</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1977.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1952.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>45020</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1960.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>45021</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1959.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1956.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>45023</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1931.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>45024</v>
+      </c>
+      <c r="B99" s="2">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>45025</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1926.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>45026</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1908.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>45027</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1919.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>45028</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1921.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1921.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>45030</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1909.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>45031</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1912.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>45032</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>45033</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1923.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>45034</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1919.1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>45035</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1912.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1933.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>45037</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1935.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>45038</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1958.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>45039</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1957.8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>45040</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1955.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>45041</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1944.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>45042</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1955.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1962.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>45044</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1963.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>45045</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1942.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>45046</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1965.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>45047</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>45048</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1952.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>45049</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1963.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>45051</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>45052</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1944.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>45053</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1943.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>45054</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1962.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>45055</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1972.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>45056</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1974.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1978.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>45058</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1956.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>45059</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1980.7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>45060</v>
+      </c>
+      <c r="B135" s="2">
+        <v>1988.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>45061</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>45062</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2014.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>45063</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2014.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>45064</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2030.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2036.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>45066</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2026.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>45067</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2017.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>45068</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>45069</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2028.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>45070</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2014.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>45071</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1983.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>45072</v>
+      </c>
+      <c r="B147" s="2">
+        <v>1990.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>45073</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1989.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>45074</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1985.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>45075</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>45076</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1989.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>45077</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1979.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2007.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>45079</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1995.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>45080</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2007.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>45081</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1994.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>45082</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2002.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>45083</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2041.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>45084</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2010.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>45085</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2004.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>45086</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1989.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>45087</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2011.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>45088</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2020.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>45089</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2022.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>45090</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1983.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>45091</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>45092</v>
+      </c>
+      <c r="B167" s="2">
+        <v>1980.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>45093</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1966.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>45094</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1972.4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>45095</v>
+      </c>
+      <c r="B170" s="2">
+        <v>1952.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>45096</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1982.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>45097</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1993.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>45098</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1946.8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>45099</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>45100</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1979.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>45101</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1969.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>45102</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>45103</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1926.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>45104</v>
+      </c>
+      <c r="B179" s="2">
+        <v>1906.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>45105</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1911.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>45106</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>45107</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1829.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1812.7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>45109</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1813.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>45110</v>
+      </c>
+      <c r="B185" s="2">
+        <v>1847.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>45111</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1847.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>45112</v>
+      </c>
+      <c r="B187" s="2">
+        <v>1833.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1837.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1828.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>45115</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>45116</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1808.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>45117</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>45118</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>45120</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1840.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>45122</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1834.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>45123</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>45124</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1851.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>45125</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1862.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1866.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1877.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>45128</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1871.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>45129</v>
+      </c>
+      <c r="B204" s="2">
+        <v>1866.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>45130</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1862.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>45131</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1916.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>45132</v>
+      </c>
+      <c r="B207" s="2">
+        <v>1927.8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>45133</v>
+      </c>
+      <c r="B208" s="2">
+        <v>1929.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>45134</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1922.9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>45135</v>
+      </c>
+      <c r="B210" s="2">
+        <v>1928.6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>45136</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1929.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>45137</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1941.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>45138</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1933.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B214" s="2">
+        <v>1927.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>45140</v>
+      </c>
+      <c r="B215" s="2">
+        <v>1926.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>45141</v>
+      </c>
+      <c r="B216" s="2">
+        <v>1922.1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>45142</v>
+      </c>
+      <c r="B217" s="2">
+        <v>1904.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>45143</v>
+      </c>
+      <c r="B218" s="2">
+        <v>1907.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>45144</v>
+      </c>
+      <c r="B219" s="2">
+        <v>1918.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>45145</v>
+      </c>
+      <c r="B220" s="2">
+        <v>1895.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>45146</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1874.6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>45147</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1871.6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>45148</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1872.7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>45149</v>
+      </c>
+      <c r="B224" s="2">
+        <v>1864.2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1834.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>45151</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1852.8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>45152</v>
+      </c>
+      <c r="B227" s="2">
+        <v>1839.7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>45153</v>
+      </c>
+      <c r="B228" s="2">
+        <v>1819.7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>45154</v>
+      </c>
+      <c r="B229" s="2">
+        <v>1819.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>45155</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1807.9</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>45156</v>
+      </c>
+      <c r="B231" s="2">
+        <v>1814.8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1795.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>45158</v>
+      </c>
+      <c r="B233" s="2">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>45159</v>
+      </c>
+      <c r="B234" s="2">
+        <v>1815.9</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>45160</v>
+      </c>
+      <c r="B235" s="2">
+        <v>1815.9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1787.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>45162</v>
+      </c>
+      <c r="B237" s="2">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>45163</v>
+      </c>
+      <c r="B238" s="2">
+        <v>1777.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1807.5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>45165</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1813.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>45166</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1780.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>45167</v>
+      </c>
+      <c r="B242" s="2">
+        <v>1798.1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B243" s="2">
+        <v>1788.7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1785.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1769.3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B246" s="2">
+        <v>1767.4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>45172</v>
+      </c>
+      <c r="B247" s="2">
+        <v>1795.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>45173</v>
+      </c>
+      <c r="B248" s="2">
+        <v>1801.1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>45174</v>
+      </c>
+      <c r="B249" s="2">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>45175</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1748.4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>45176</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1740.1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>45177</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1753.3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>45178</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>45179</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>45180</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>45181</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f t="shared" ref="A259:A322" si="0">IF(ISNUMBER(B260),ROW(B260)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f t="shared" ref="A323:A386" si="1">IF(ISNUMBER(B324),ROW(B324)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f t="shared" ref="A387:A450" si="2">IF(ISNUMBER(B388),ROW(B388)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f t="shared" ref="A451:A514" si="3">IF(ISNUMBER(B452),ROW(B452)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="str">
+        <f t="shared" ref="A515:A578" si="4">IF(ISNUMBER(B516),ROW(B516)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="str">
+        <f t="shared" ref="A579:A642" si="5">IF(ISNUMBER(B580),ROW(B580)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="str">
+        <f t="shared" ref="A643:A706" si="6">IF(ISNUMBER(B644),ROW(B644)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="str">
+        <f t="shared" ref="A707:A770" si="7">IF(ISNUMBER(B708),ROW(B708)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="str">
+        <f t="shared" ref="A771:A791" si="8">IF(ISNUMBER(B772),ROW(B772)-1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>